--- a/INEGI_Sub.xlsx
+++ b/INEGI_Sub.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max Garcia\MATLAB Drive\Published\HackMty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max Garcia\Downloads\HackMTY_Banorte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0450350-CAC1-46EE-988D-46797EAE9C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9CE62F-2D66-4EB0-A3E0-CDCA7EC41EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{12E0D468-5064-433D-A17E-9DDC1F157773}"/>
+    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8964" xr2:uid="{12E0D468-5064-433D-A17E-9DDC1F157773}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1403,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A382C16-5175-4849-855A-533D4B1559AC}">
   <dimension ref="A1:B328"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1442,7 +1442,6 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f>(B3+B5)/2</f>
         <v>3.8650000000000002</v>
       </c>
     </row>
@@ -1459,7 +1458,6 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <f>(B5+B7)/2</f>
         <v>3.99</v>
       </c>
     </row>
@@ -1476,7 +1474,6 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <f>(B7+B9)/2</f>
         <v>4.1950000000000003</v>
       </c>
     </row>
@@ -1493,7 +1490,6 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <f>(B9+B11)/2</f>
         <v>4.4450000000000003</v>
       </c>
     </row>
@@ -1510,7 +1506,6 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <f>(B11+B13)/2</f>
         <v>4.6850000000000005</v>
       </c>
     </row>
@@ -1527,7 +1522,6 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <f>(B13+B15)/2</f>
         <v>4.83</v>
       </c>
     </row>
@@ -1544,7 +1538,6 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <f>(B15+B17)/2</f>
         <v>4.9550000000000001</v>
       </c>
     </row>
@@ -1561,7 +1554,6 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <f>(B17+B19)/2</f>
         <v>5.085</v>
       </c>
     </row>
@@ -1578,7 +1570,6 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <f>(B19+B21)/2</f>
         <v>5.1199999999999992</v>
       </c>
     </row>
@@ -1595,7 +1586,6 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <f>(B21+B23)/2</f>
         <v>5.22</v>
       </c>
     </row>
@@ -1612,7 +1602,6 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <f>(B23+B25)/2</f>
         <v>5.4399999999999995</v>
       </c>
     </row>
@@ -1629,7 +1618,6 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <f>(B25+B27)/2</f>
         <v>5.54</v>
       </c>
     </row>
@@ -1646,7 +1634,6 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <f>(B27+B29)/2</f>
         <v>5.5600000000000005</v>
       </c>
     </row>
@@ -1663,7 +1650,6 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <f>(B29+B31)/2</f>
         <v>5.5950000000000006</v>
       </c>
     </row>
@@ -1680,7 +1666,6 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <f>(B31+B33)/2</f>
         <v>5.625</v>
       </c>
     </row>
@@ -1697,7 +1682,6 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <f>(B33+B35)/2</f>
         <v>5.4949999999999992</v>
       </c>
     </row>
@@ -1714,7 +1698,6 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <f>(B35+B37)/2</f>
         <v>5.2349999999999994</v>
       </c>
     </row>
@@ -1731,7 +1714,6 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <f>(B37+B39)/2</f>
         <v>5.07</v>
       </c>
     </row>
@@ -1748,7 +1730,6 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <f>(B39+B41)/2</f>
         <v>4.8849999999999998</v>
       </c>
     </row>
@@ -1765,7 +1746,6 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <f>(B41+B43)/2</f>
         <v>4.6500000000000004</v>
       </c>
     </row>
@@ -1782,7 +1762,6 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <f>(B43+B45)/2</f>
         <v>4.57</v>
       </c>
     </row>
@@ -1799,7 +1778,6 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <f>(B45+B47)/2</f>
         <v>4.43</v>
       </c>
     </row>
@@ -1816,7 +1794,6 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <f>(B47+B49)/2</f>
         <v>4.2149999999999999</v>
       </c>
     </row>
@@ -1833,7 +1810,6 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <f>(B49+B51)/2</f>
         <v>4.32</v>
       </c>
     </row>
@@ -1850,7 +1826,6 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <f>(B51+B53)/2</f>
         <v>4.4550000000000001</v>
       </c>
     </row>
@@ -1867,7 +1842,6 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <f>(B53+B55)/2</f>
         <v>4.3449999999999998</v>
       </c>
     </row>
@@ -1884,7 +1858,6 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <f>(B55+B57)/2</f>
         <v>4.0949999999999998</v>
       </c>
     </row>
@@ -1901,7 +1874,6 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <f>(B57+B59)/2</f>
         <v>3.9450000000000003</v>
       </c>
     </row>
@@ -1918,7 +1890,6 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <f>(B59+B61)/2</f>
         <v>3.9050000000000002</v>
       </c>
     </row>
@@ -1935,7 +1906,6 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <f>(B61+B63)/2</f>
         <v>3.7949999999999999</v>
       </c>
     </row>
@@ -1952,7 +1922,6 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <f>(B63+B65)/2</f>
         <v>3.7149999999999999</v>
       </c>
     </row>
@@ -1969,7 +1938,6 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <f>(B65+B67)/2</f>
         <v>3.67</v>
       </c>
     </row>
@@ -1986,7 +1954,6 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <f>(B67+B69)/2</f>
         <v>3.58</v>
       </c>
     </row>
@@ -2003,7 +1970,6 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <f>(B69+B71)/2</f>
         <v>3.5599999999999996</v>
       </c>
     </row>
@@ -2020,7 +1986,6 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <f>(B71+B73)/2</f>
         <v>3.5949999999999998</v>
       </c>
     </row>
@@ -2037,7 +2002,6 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <f>(B73+B75)/2</f>
         <v>3.4249999999999998</v>
       </c>
     </row>
@@ -2054,7 +2018,6 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <f>(B75+B77)/2</f>
         <v>3.2649999999999997</v>
       </c>
     </row>
@@ -2071,7 +2034,6 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <f>(B77+B79)/2</f>
         <v>3.2349999999999999</v>
       </c>
     </row>
@@ -2088,7 +2050,6 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <f>(B79+B81)/2</f>
         <v>3.1950000000000003</v>
       </c>
     </row>
@@ -2105,7 +2066,6 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <f>(B81+B83)/2</f>
         <v>3.1500000000000004</v>
       </c>
     </row>
@@ -2122,7 +2082,6 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <f>(B83+B85)/2</f>
         <v>3.1500000000000004</v>
       </c>
     </row>
@@ -2139,7 +2098,6 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <f>(B85+B87)/2</f>
         <v>3.1850000000000001</v>
       </c>
     </row>
@@ -2156,7 +2114,6 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <f>(B87+B89)/2</f>
         <v>3.2050000000000001</v>
       </c>
     </row>
@@ -2173,7 +2130,6 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <f>(B89+B91)/2</f>
         <v>3.17</v>
       </c>
     </row>
@@ -2190,7 +2146,6 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <f>(B91+B93)/2</f>
         <v>3.1550000000000002</v>
       </c>
     </row>
@@ -2207,7 +2162,6 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <f>(B93+B95)/2</f>
         <v>3.2349999999999999</v>
       </c>
     </row>
@@ -2224,7 +2178,6 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <f>(B95+B97)/2</f>
         <v>3.3149999999999999</v>
       </c>
     </row>
@@ -2241,7 +2194,6 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <f>(B97+B99)/2</f>
         <v>3.3449999999999998</v>
       </c>
     </row>
@@ -2258,7 +2210,6 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <f>(B99+B101)/2</f>
         <v>3.355</v>
       </c>
     </row>
@@ -2275,7 +2226,6 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <f>(B101+B103)/2</f>
         <v>3.34</v>
       </c>
     </row>
@@ -2292,7 +2242,6 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <f>(B103+B105)/2</f>
         <v>3.35</v>
       </c>
     </row>
@@ -2309,7 +2258,6 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <f>(B105+B107)/2</f>
         <v>3.4350000000000001</v>
       </c>
     </row>
@@ -2326,7 +2274,6 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <f>(B107+B109)/2</f>
         <v>3.49</v>
       </c>
     </row>
@@ -2343,7 +2290,6 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <f>(B109+B111)/2</f>
         <v>3.5449999999999999</v>
       </c>
     </row>
@@ -2360,7 +2306,6 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <f>(B111+B113)/2</f>
         <v>3.645</v>
       </c>
     </row>
@@ -2377,7 +2322,6 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <f>(B113+B115)/2</f>
         <v>3.6550000000000002</v>
       </c>
     </row>
@@ -2394,7 +2338,6 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <f>(B115+B117)/2</f>
         <v>3.5949999999999998</v>
       </c>
     </row>
@@ -2411,7 +2354,6 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <f>(B117+B119)/2</f>
         <v>3.44</v>
       </c>
     </row>
@@ -2428,7 +2370,6 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <f>(B119+B121)/2</f>
         <v>3.0999999999999996</v>
       </c>
     </row>
@@ -2445,7 +2386,6 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <f>(B121+B123)/2</f>
         <v>2.8899999999999997</v>
       </c>
     </row>
@@ -2462,7 +2402,6 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <f>(B123+B125)/2</f>
         <v>2.92</v>
       </c>
     </row>
@@ -2479,7 +2418,6 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <f>(B125+B127)/2</f>
         <v>2.99</v>
       </c>
     </row>
@@ -2496,7 +2434,6 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <f>(B127+B129)/2</f>
         <v>2.9850000000000003</v>
       </c>
     </row>
@@ -2513,7 +2450,6 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <f>(B129+B131)/2</f>
         <v>2.915</v>
       </c>
     </row>
@@ -2530,7 +2466,6 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <f>(B131+B133)/2</f>
         <v>2.835</v>
       </c>
     </row>
@@ -2547,7 +2482,6 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <f>(B133+B135)/2</f>
         <v>2.645</v>
       </c>
     </row>
@@ -2564,7 +2498,6 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <f>(B135+B137)/2</f>
         <v>2.4350000000000001</v>
       </c>
     </row>
@@ -2581,7 +2514,6 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <f>(B137+B139)/2</f>
         <v>2.4450000000000003</v>
       </c>
     </row>
@@ -2598,7 +2530,6 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <f>(B139+B141)/2</f>
         <v>2.5</v>
       </c>
     </row>
@@ -2615,7 +2546,6 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <f>(B141+B143)/2</f>
         <v>2.52</v>
       </c>
     </row>
@@ -2632,7 +2562,6 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <f>(B143+B145)/2</f>
         <v>2.67</v>
       </c>
     </row>
@@ -2649,7 +2578,6 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <f>(B145+B147)/2</f>
         <v>2.9950000000000001</v>
       </c>
     </row>
@@ -2666,7 +2594,6 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <f>(B147+B149)/2</f>
         <v>3.0949999999999998</v>
       </c>
     </row>
@@ -2683,7 +2610,6 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <f>(B149+B151)/2</f>
         <v>2.9350000000000001</v>
       </c>
     </row>
@@ -2700,7 +2626,6 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <f>(B151+B153)/2</f>
         <v>3</v>
       </c>
     </row>
@@ -2717,7 +2642,6 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <f>(B153+B155)/2</f>
         <v>3.0549999999999997</v>
       </c>
     </row>
@@ -2734,7 +2658,6 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <f>(B155+B157)/2</f>
         <v>3.0449999999999999</v>
       </c>
     </row>
@@ -2751,7 +2674,6 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <f>(B157+B159)/2</f>
         <v>3.17</v>
       </c>
     </row>
@@ -2768,7 +2690,6 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <f>(B159+B161)/2</f>
         <v>3.31</v>
       </c>
     </row>
@@ -2785,7 +2706,6 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <f>(B161+B163)/2</f>
         <v>3.355</v>
       </c>
     </row>
@@ -2802,7 +2722,6 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <f>(B163+B165)/2</f>
         <v>3.33</v>
       </c>
     </row>
@@ -2819,7 +2738,6 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <f>(B165+B167)/2</f>
         <v>3.33</v>
       </c>
     </row>
@@ -2836,7 +2754,6 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <f>(B167+B169)/2</f>
         <v>3.29</v>
       </c>
     </row>
@@ -2853,7 +2770,6 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <f>(B169+B171)/2</f>
         <v>2.79</v>
       </c>
     </row>
@@ -2870,7 +2786,6 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <f>(B171+B173)/2</f>
         <v>2.37</v>
       </c>
     </row>
@@ -2887,7 +2802,6 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <f>(B173+B175)/2</f>
         <v>2.4249999999999998</v>
       </c>
     </row>
@@ -2904,7 +2818,6 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <f>(B175+B177)/2</f>
         <v>2.38</v>
       </c>
     </row>
@@ -2921,7 +2834,6 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <f>(B177+B179)/2</f>
         <v>2.3200000000000003</v>
       </c>
     </row>
@@ -2938,7 +2850,6 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <f>(B179+B181)/2</f>
         <v>2.33</v>
       </c>
     </row>
@@ -2955,7 +2866,6 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <f>(B181+B183)/2</f>
         <v>2.3200000000000003</v>
       </c>
     </row>
@@ -2972,7 +2882,6 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <f>(B183+B185)/2</f>
         <v>2.3049999999999997</v>
       </c>
     </row>
@@ -2989,7 +2898,6 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <f>(B185+B187)/2</f>
         <v>2.34</v>
       </c>
     </row>
@@ -3006,7 +2914,6 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <f>(B187+B189)/2</f>
         <v>2.4249999999999998</v>
       </c>
     </row>
@@ -3023,7 +2930,6 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <f>(B189+B191)/2</f>
         <v>2.4050000000000002</v>
       </c>
     </row>
@@ -3040,7 +2946,6 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <f>(B191+B193)/2</f>
         <v>2.375</v>
       </c>
     </row>
@@ -3057,7 +2962,6 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <f>(B193+B195)/2</f>
         <v>2.5250000000000004</v>
       </c>
     </row>
@@ -3074,7 +2978,6 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <f>(B195+B197)/2</f>
         <v>2.6500000000000004</v>
       </c>
     </row>
@@ -3091,7 +2994,6 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <f>(B197+B199)/2</f>
         <v>2.71</v>
       </c>
     </row>
@@ -3108,7 +3010,6 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <f>(B199+B201)/2</f>
         <v>2.7949999999999999</v>
       </c>
     </row>
@@ -3125,7 +3026,6 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <f>(B201+B203)/2</f>
         <v>2.88</v>
       </c>
     </row>
@@ -3142,7 +3042,6 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <f>(B203+B205)/2</f>
         <v>2.95</v>
       </c>
     </row>
@@ -3159,7 +3058,6 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <f>(B205+B207)/2</f>
         <v>2.97</v>
       </c>
     </row>
@@ -3176,7 +3074,6 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <f>(B207+B209)/2</f>
         <v>2.9649999999999999</v>
       </c>
     </row>
@@ -3193,7 +3090,6 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <f>(B209+B211)/2</f>
         <v>3.0149999999999997</v>
       </c>
     </row>
@@ -3210,7 +3106,6 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <f>(B211+B213)/2</f>
         <v>3.085</v>
       </c>
     </row>
@@ -3227,7 +3122,6 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <f>(B213+B215)/2</f>
         <v>3.1950000000000003</v>
       </c>
     </row>
@@ -3244,7 +3138,6 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <f>(B215+B217)/2</f>
         <v>3.3650000000000002</v>
       </c>
     </row>
@@ -3261,7 +3154,6 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <f>(B217+B219)/2</f>
         <v>3.6399999999999997</v>
       </c>
     </row>
@@ -3278,7 +3170,6 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <f>(B219+B221)/2</f>
         <v>4.05</v>
       </c>
     </row>
@@ -3295,7 +3186,6 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <f>(B221+B223)/2</f>
         <v>4.37</v>
       </c>
     </row>
@@ -3312,7 +3202,6 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <f>(B223+B225)/2</f>
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -3329,7 +3218,6 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <f>(B225+B227)/2</f>
         <v>4.75</v>
       </c>
     </row>
@@ -3346,7 +3234,6 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <f>(B227+B229)/2</f>
         <v>4.8049999999999997</v>
       </c>
     </row>
@@ -3363,7 +3250,6 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <f>(B229+B231)/2</f>
         <v>4.8849999999999998</v>
       </c>
     </row>
@@ -3380,7 +3266,6 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <f>(B231+B233)/2</f>
         <v>4.9700000000000006</v>
       </c>
     </row>
@@ -3397,7 +3282,6 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <f>(B233+B235)/2</f>
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -3414,7 +3298,6 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <f>(B235+B237)/2</f>
         <v>4.7850000000000001</v>
       </c>
     </row>
@@ -3431,7 +3314,6 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <f>(B237+B239)/2</f>
         <v>4.835</v>
       </c>
     </row>
@@ -3448,7 +3330,6 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <f>(B239+B241)/2</f>
         <v>4.8849999999999998</v>
       </c>
     </row>
@@ -3465,7 +3346,6 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <f>(B241+B243)/2</f>
         <v>4.7149999999999999</v>
       </c>
     </row>
@@ -3482,7 +3362,6 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <f>(B243+B245)/2</f>
         <v>4.4149999999999991</v>
       </c>
     </row>
@@ -3499,7 +3378,6 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <f>(B245+B247)/2</f>
         <v>4.1449999999999996</v>
       </c>
     </row>
@@ -3516,7 +3394,6 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <f>(B247+B249)/2</f>
         <v>3.8649999999999998</v>
       </c>
     </row>
@@ -3533,7 +3410,6 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <f>(B249+B251)/2</f>
         <v>3.7</v>
       </c>
     </row>
@@ -3550,7 +3426,6 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <f>(B251+B253)/2</f>
         <v>3.6550000000000002</v>
       </c>
     </row>
@@ -3567,7 +3442,6 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <f>(B253+B255)/2</f>
         <v>3.625</v>
       </c>
     </row>
@@ -3584,7 +3458,6 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <f>(B255+B257)/2</f>
         <v>3.63</v>
       </c>
     </row>
@@ -3601,7 +3474,6 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <f>(B257+B259)/2</f>
         <v>3.65</v>
       </c>
     </row>
@@ -3618,7 +3490,6 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <f>(B259+B261)/2</f>
         <v>3.7</v>
       </c>
     </row>
@@ -3635,7 +3506,6 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <f>(B261+B263)/2</f>
         <v>3.6799999999999997</v>
       </c>
     </row>
@@ -3652,7 +3522,6 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <f>(B263+B265)/2</f>
         <v>3.6550000000000002</v>
       </c>
     </row>
@@ -3669,7 +3538,6 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <f>(B265+B267)/2</f>
         <v>3.64</v>
       </c>
     </row>
@@ -3686,7 +3554,6 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <f>(B267+B269)/2</f>
         <v>3.5700000000000003</v>
       </c>
     </row>
@@ -3703,7 +3570,6 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <f>(B269+B271)/2</f>
         <v>3.5449999999999999</v>
       </c>
     </row>
@@ -3720,7 +3586,6 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <f>(B271+B273)/2</f>
         <v>3.71</v>
       </c>
     </row>
@@ -3737,7 +3602,6 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <f>(B273+B275)/2</f>
         <v>3.8200000000000003</v>
       </c>
     </row>
@@ -3754,7 +3618,6 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <f>(B275+B277)/2</f>
         <v>3.81</v>
       </c>
     </row>
@@ -3771,7 +3634,6 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <f>(B277+B279)/2</f>
         <v>3.835</v>
       </c>
     </row>
@@ -3788,7 +3650,6 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <f>(B279+B281)/2</f>
         <v>3.8</v>
       </c>
     </row>
@@ -3805,7 +3666,6 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <f>(B281+B283)/2</f>
         <v>3.7649999999999997</v>
       </c>
     </row>
@@ -3822,7 +3682,6 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <f>(B283+B285)/2</f>
         <v>3.7149999999999999</v>
       </c>
     </row>
@@ -3839,7 +3698,6 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <f>(B285+B287)/2</f>
         <v>3.665</v>
       </c>
     </row>
@@ -3856,7 +3714,6 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <f>(B287+B289)/2</f>
         <v>3.62</v>
       </c>
     </row>
@@ -3873,7 +3730,6 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <f>(B289+B291)/2</f>
         <v>3.66</v>
       </c>
     </row>
@@ -3890,7 +3746,6 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <f>(B291+B293)/2</f>
         <v>3.6950000000000003</v>
       </c>
     </row>
@@ -3907,7 +3762,6 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <f>(B293+B295)/2</f>
         <v>3.63</v>
       </c>
     </row>
@@ -3924,7 +3778,6 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <f>(B295+B297)/2</f>
         <v>3.55</v>
       </c>
     </row>
@@ -3941,7 +3794,6 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <f>(B297+B299)/2</f>
         <v>3.5700000000000003</v>
       </c>
     </row>
@@ -3958,7 +3810,6 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <f>(B299+B301)/2</f>
         <v>3.6749999999999998</v>
       </c>
     </row>
@@ -3975,7 +3826,6 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <f>(B301+B303)/2</f>
         <v>3.7800000000000002</v>
       </c>
     </row>
@@ -3992,7 +3842,6 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <f>(B303+B305)/2</f>
         <v>3.91</v>
       </c>
     </row>
@@ -4009,7 +3858,6 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <f>(B305+B307)/2</f>
         <v>3.9800000000000004</v>
       </c>
     </row>
@@ -4026,7 +3874,6 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <f>(B307+B309)/2</f>
         <v>3.9850000000000003</v>
       </c>
     </row>
@@ -4043,7 +3890,6 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <f>(B309+B311)/2</f>
         <v>3.8200000000000003</v>
       </c>
     </row>
@@ -4060,7 +3906,6 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <f>(B311+B313)/2</f>
         <v>3.73</v>
       </c>
     </row>
@@ -4077,7 +3922,6 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <f>(B313+B315)/2</f>
         <v>3.82</v>
       </c>
     </row>
@@ -4094,7 +3938,6 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <f>(B315+B317)/2</f>
         <v>3.855</v>
       </c>
     </row>
@@ -4111,7 +3954,6 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <f>(B317+B319)/2</f>
         <v>3.9950000000000001</v>
       </c>
     </row>
@@ -4128,7 +3970,6 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <f>(B319+B321)/2</f>
         <v>4.125</v>
       </c>
     </row>
@@ -4145,7 +3986,6 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <f>(B321+B323)/2</f>
         <v>4.25</v>
       </c>
     </row>
@@ -4162,7 +4002,6 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <f>(B323+B325)/2</f>
         <v>4.4749999999999996</v>
       </c>
     </row>
@@ -4179,7 +4018,6 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <f>(B325+B327)/2</f>
         <v>4.62</v>
       </c>
     </row>
